--- a/state_results/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
+++ b/state_results/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.4605</v>
+        <v>4.4604</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6380625</v>
+        <v>3.638071875</v>
       </c>
       <c r="H12" t="n">
         <v>6.765</v>
@@ -1403,10 +1403,10 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>3.0545</v>
+        <v>3.05435</v>
       </c>
       <c r="M12" t="n">
-        <v>4.9909</v>
+        <v>4.99053</v>
       </c>
       <c r="N12" t="n">
         <v>5.23284</v>
@@ -1466,10 +1466,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4605</v>
+        <v>4.4604</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6380625</v>
+        <v>3.638071875</v>
       </c>
       <c r="H13" t="n">
         <v>6.765</v>
@@ -1480,10 +1480,10 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>3.0545</v>
+        <v>3.05435</v>
       </c>
       <c r="M13" t="n">
-        <v>4.9909</v>
+        <v>4.99053</v>
       </c>
       <c r="N13" t="n">
         <v>5.23284</v>
@@ -1855,27 +1855,27 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.96</v>
+        <v>4.11</v>
       </c>
       <c r="G18" t="n">
-        <v>4.49079632465553</v>
+        <v>4.5802524674141</v>
       </c>
       <c r="H18" t="n">
-        <v>19.1717738568623</v>
+        <v>17.7492721922907</v>
       </c>
       <c r="I18" t="n">
-        <v>13.39554</v>
+        <v>15.90783</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M18" t="n">
-        <v>6.36586</v>
+        <v>6.89987</v>
       </c>
       <c r="N18" t="n">
-        <v>12.7894</v>
+        <v>9.989929999999999</v>
       </c>
       <c r="O18" t="n">
         <v>1791560.7</v>
@@ -2101,13 +2101,13 @@
         <v>171</v>
       </c>
       <c r="G21" t="n">
-        <v>2931.35675094044</v>
+        <v>2458.21811617282</v>
       </c>
       <c r="H21" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I21" t="n">
-        <v>14372.64921</v>
+        <v>14503.29561</v>
       </c>
       <c r="J21" t="n">
         <v>36.3636363636364</v>
@@ -2186,13 +2186,13 @@
         <v>171</v>
       </c>
       <c r="G22" t="n">
-        <v>2931.35675094044</v>
+        <v>2458.21811617282</v>
       </c>
       <c r="H22" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I22" t="n">
-        <v>14372.64921</v>
+        <v>14503.29561</v>
       </c>
       <c r="J22" t="n">
         <v>36.3636363636364</v>
@@ -2271,13 +2271,13 @@
         <v>171</v>
       </c>
       <c r="G23" t="n">
-        <v>2931.35675094044</v>
+        <v>2458.21811617282</v>
       </c>
       <c r="H23" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I23" t="n">
-        <v>14372.64921</v>
+        <v>14503.29561</v>
       </c>
       <c r="J23" t="n">
         <v>36.3636363636364</v>
@@ -2356,13 +2356,13 @@
         <v>171</v>
       </c>
       <c r="G24" t="n">
-        <v>2931.35675094044</v>
+        <v>2458.21811617282</v>
       </c>
       <c r="H24" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I24" t="n">
-        <v>14372.64921</v>
+        <v>14503.29561</v>
       </c>
       <c r="J24" t="n">
         <v>36.3636363636364</v>
@@ -2761,7 +2761,7 @@
         <v>4.535</v>
       </c>
       <c r="G29" t="n">
-        <v>3.70529545454545</v>
+        <v>3.70530227272727</v>
       </c>
       <c r="H29" t="n">
         <v>6.765</v>
@@ -2772,10 +2772,10 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>3.451</v>
+        <v>3.4509</v>
       </c>
       <c r="M29" t="n">
-        <v>5.14706</v>
+        <v>5.14716</v>
       </c>
       <c r="N29" t="n">
         <v>5.4022</v>
@@ -2838,7 +2838,7 @@
         <v>4.535</v>
       </c>
       <c r="G30" t="n">
-        <v>3.70529545454545</v>
+        <v>3.70530227272727</v>
       </c>
       <c r="H30" t="n">
         <v>6.765</v>
@@ -2849,10 +2849,10 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>3.451</v>
+        <v>3.4509</v>
       </c>
       <c r="M30" t="n">
-        <v>5.14706</v>
+        <v>5.14716</v>
       </c>
       <c r="N30" t="n">
         <v>5.4022</v>
@@ -3224,27 +3224,27 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>4.48722224966664</v>
+        <v>4.57379271040075</v>
       </c>
       <c r="H35" t="n">
-        <v>19.1717738568623</v>
+        <v>17.7492721922907</v>
       </c>
       <c r="I35" t="n">
-        <v>13.36186</v>
+        <v>15.57906</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="M35" t="n">
-        <v>6.32162</v>
+        <v>6.82504</v>
       </c>
       <c r="N35" t="n">
-        <v>12.73552</v>
+        <v>9.463900000000001</v>
       </c>
       <c r="O35" t="n">
         <v>1791560.7</v>
@@ -3470,13 +3470,13 @@
         <v>120</v>
       </c>
       <c r="G38" t="n">
-        <v>2654.59928487884</v>
+        <v>2191.97484199495</v>
       </c>
       <c r="H38" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I38" t="n">
-        <v>13682.10514</v>
+        <v>14047.48348</v>
       </c>
       <c r="J38" t="n">
         <v>33.3333333333333</v>
@@ -3555,13 +3555,13 @@
         <v>120</v>
       </c>
       <c r="G39" t="n">
-        <v>2654.59928487884</v>
+        <v>2191.97484199495</v>
       </c>
       <c r="H39" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I39" t="n">
-        <v>13682.10514</v>
+        <v>14047.48348</v>
       </c>
       <c r="J39" t="n">
         <v>33.3333333333333</v>
@@ -3640,13 +3640,13 @@
         <v>120</v>
       </c>
       <c r="G40" t="n">
-        <v>2654.59928487884</v>
+        <v>2191.97484199495</v>
       </c>
       <c r="H40" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I40" t="n">
-        <v>13682.10514</v>
+        <v>14047.48348</v>
       </c>
       <c r="J40" t="n">
         <v>33.3333333333333</v>
@@ -3725,13 +3725,13 @@
         <v>120</v>
       </c>
       <c r="G41" t="n">
-        <v>2654.59928487884</v>
+        <v>2191.97484199495</v>
       </c>
       <c r="H41" t="n">
-        <v>40862.0461409013</v>
+        <v>21660.5088145863</v>
       </c>
       <c r="I41" t="n">
-        <v>13682.10514</v>
+        <v>14047.48348</v>
       </c>
       <c r="J41" t="n">
         <v>33.3333333333333</v>
@@ -4130,7 +4130,7 @@
         <v>4.61</v>
       </c>
       <c r="G46" t="n">
-        <v>3.92735555555556</v>
+        <v>3.92736444444444</v>
       </c>
       <c r="H46" t="n">
         <v>6.765</v>
@@ -4141,10 +4141,10 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>3.661</v>
+        <v>3.66075</v>
       </c>
       <c r="M46" t="n">
-        <v>5.1346</v>
+        <v>5.13468</v>
       </c>
       <c r="N46" t="n">
         <v>5.391</v>
@@ -4207,7 +4207,7 @@
         <v>4.61</v>
       </c>
       <c r="G47" t="n">
-        <v>3.92735555555556</v>
+        <v>3.92736444444444</v>
       </c>
       <c r="H47" t="n">
         <v>6.765</v>
@@ -4218,10 +4218,10 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>3.661</v>
+        <v>3.66075</v>
       </c>
       <c r="M47" t="n">
-        <v>5.1346</v>
+        <v>5.13468</v>
       </c>
       <c r="N47" t="n">
         <v>5.391</v>
@@ -4566,1294 +4566,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DRP (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.0236666666666667</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.03138</v>
-      </c>
-      <c r="N52" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DRP (Median)</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.0236666666666667</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.03138</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>E coli (&gt;260)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>195</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3081.193550543</v>
-      </c>
-      <c r="H54" t="n">
-        <v>40862.0461409013</v>
-      </c>
-      <c r="I54" t="n">
-        <v>19897.00169</v>
-      </c>
-      <c r="J54" t="n">
-        <v>36.1111111111111</v>
-      </c>
-      <c r="K54" t="n">
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L54" t="n">
-        <v>215</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3994</v>
-      </c>
-      <c r="N54" t="n">
-        <v>10028.2186</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>% exceedances over 260/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>E coli (&gt;540)</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>195</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3081.193550543</v>
-      </c>
-      <c r="H55" t="n">
-        <v>40862.0461409013</v>
-      </c>
-      <c r="I55" t="n">
-        <v>19897.00169</v>
-      </c>
-      <c r="J55" t="n">
-        <v>36.1111111111111</v>
-      </c>
-      <c r="K55" t="n">
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L55" t="n">
-        <v>215</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3994</v>
-      </c>
-      <c r="N55" t="n">
-        <v>10028.2186</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>% exceedances over 540/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>E coli (Median)</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>195</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3081.193550543</v>
-      </c>
-      <c r="H56" t="n">
-        <v>40862.0461409013</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19897.00169</v>
-      </c>
-      <c r="J56" t="n">
-        <v>36.1111111111111</v>
-      </c>
-      <c r="K56" t="n">
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L56" t="n">
-        <v>215</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3994</v>
-      </c>
-      <c r="N56" t="n">
-        <v>10028.2186</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>E coli (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>195</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3081.193550543</v>
-      </c>
-      <c r="H57" t="n">
-        <v>40862.0461409013</v>
-      </c>
-      <c r="I57" t="n">
-        <v>19897.00169</v>
-      </c>
-      <c r="J57" t="n">
-        <v>36.1111111111111</v>
-      </c>
-      <c r="K57" t="n">
-        <v>44.4444444444444</v>
-      </c>
-      <c r="L57" t="n">
-        <v>215</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3994</v>
-      </c>
-      <c r="N57" t="n">
-        <v>10028.2186</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P57" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>0.00313</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.004543448619031</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.0233424939575973</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0.01212</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>0.00267</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.007860000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0.01073</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Ammoniacal-N (Median)</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>0.00313</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.004543448619031</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0233424939575973</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0.01212</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>0.00267</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.007860000000000001</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0.01073</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>mg NH4-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Nitrate-N (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3.88103333333333</v>
-      </c>
-      <c r="H60" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>3.515</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5.19044</v>
-      </c>
-      <c r="N60" t="n">
-        <v>5.5388</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Nitrate-N (Median)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3.88103333333333</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I61" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>3.515</v>
-      </c>
-      <c r="M61" t="n">
-        <v>5.19044</v>
-      </c>
-      <c r="N61" t="n">
-        <v>5.5388</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>mg NO3-N/L</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="G62" t="n">
-        <v>3.89805555555556</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6.765</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.712</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>3.5385</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5.21268</v>
-      </c>
-      <c r="N62" t="n">
-        <v>5.5476</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Soluble Inorganic Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3.89805555555556</v>
-      </c>
-      <c r="H63" t="n">
-        <v>6.765</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.712</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>3.5385</v>
-      </c>
-      <c r="M63" t="n">
-        <v>5.21268</v>
-      </c>
-      <c r="N63" t="n">
-        <v>5.5476</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P63" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>4.745</v>
-      </c>
-      <c r="G64" t="n">
-        <v>4.21672222222222</v>
-      </c>
-      <c r="H64" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>3.814</v>
-      </c>
-      <c r="M64" t="n">
-        <v>5.3014</v>
-      </c>
-      <c r="N64" t="n">
-        <v>5.56366</v>
-      </c>
-      <c r="O64" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Total Nitrogen (Median)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>4.745</v>
-      </c>
-      <c r="G65" t="n">
-        <v>4.21672222222222</v>
-      </c>
-      <c r="H65" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5.685</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>3.814</v>
-      </c>
-      <c r="M65" t="n">
-        <v>5.3014</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5.56366</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (95th Percentile)</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.0486944444444444</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.05414</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0.07134</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Queen Street Drain at L Horowhenua</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Total Phosphorus (Median)</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2015 - 2019</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>0.0335</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.0486944444444444</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.269</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.1531</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.05414</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.07134</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1791560.7</v>
-      </c>
-      <c r="P67" t="n">
-        <v>5501802.6</v>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Horowhenua District</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Waiopehu</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Lake Horowhenua</t>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>Hoki_1a</t>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
+++ b/state_results/Rivers/QueenStreetDrainatLHorowhenua_5ecfdaee22.xlsx
@@ -1858,13 +1858,13 @@
         <v>4.11</v>
       </c>
       <c r="G18" t="n">
-        <v>4.5802524674141</v>
+        <v>4.8558528503412</v>
       </c>
       <c r="H18" t="n">
-        <v>17.7492721922907</v>
+        <v>22.4367399127508</v>
       </c>
       <c r="I18" t="n">
-        <v>15.90783</v>
+        <v>14.12945</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1872,10 +1872,10 @@
         <v>3.55</v>
       </c>
       <c r="M18" t="n">
-        <v>6.89987</v>
+        <v>7.04298</v>
       </c>
       <c r="N18" t="n">
-        <v>9.989929999999999</v>
+        <v>12.85426</v>
       </c>
       <c r="O18" t="n">
         <v>1791560.7</v>
@@ -2101,13 +2101,13 @@
         <v>171</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.21811617282</v>
+        <v>2136.58801307125</v>
       </c>
       <c r="H21" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I21" t="n">
-        <v>14503.29561</v>
+        <v>11932.98836</v>
       </c>
       <c r="J21" t="n">
         <v>36.3636363636364</v>
@@ -2186,13 +2186,13 @@
         <v>171</v>
       </c>
       <c r="G22" t="n">
-        <v>2458.21811617282</v>
+        <v>2136.58801307125</v>
       </c>
       <c r="H22" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I22" t="n">
-        <v>14503.29561</v>
+        <v>11932.98836</v>
       </c>
       <c r="J22" t="n">
         <v>36.3636363636364</v>
@@ -2271,13 +2271,13 @@
         <v>171</v>
       </c>
       <c r="G23" t="n">
-        <v>2458.21811617282</v>
+        <v>2136.58801307125</v>
       </c>
       <c r="H23" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I23" t="n">
-        <v>14503.29561</v>
+        <v>11932.98836</v>
       </c>
       <c r="J23" t="n">
         <v>36.3636363636364</v>
@@ -2356,13 +2356,13 @@
         <v>171</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.21811617282</v>
+        <v>2136.58801307125</v>
       </c>
       <c r="H24" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I24" t="n">
-        <v>14503.29561</v>
+        <v>11932.98836</v>
       </c>
       <c r="J24" t="n">
         <v>36.3636363636364</v>
@@ -3227,13 +3227,13 @@
         <v>4.1</v>
       </c>
       <c r="G35" t="n">
-        <v>4.57379271040075</v>
+        <v>4.84050275839471</v>
       </c>
       <c r="H35" t="n">
-        <v>17.7492721922907</v>
+        <v>22.4367399127508</v>
       </c>
       <c r="I35" t="n">
-        <v>15.57906</v>
+        <v>14.05861</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -3241,10 +3241,10 @@
         <v>3.55</v>
       </c>
       <c r="M35" t="n">
-        <v>6.82504</v>
+        <v>6.6615</v>
       </c>
       <c r="N35" t="n">
-        <v>9.463900000000001</v>
+        <v>12.74091</v>
       </c>
       <c r="O35" t="n">
         <v>1791560.7</v>
@@ -3470,13 +3470,13 @@
         <v>120</v>
       </c>
       <c r="G38" t="n">
-        <v>2191.97484199495</v>
+        <v>1877.49207451786</v>
       </c>
       <c r="H38" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I38" t="n">
-        <v>14047.48348</v>
+        <v>11754.93474</v>
       </c>
       <c r="J38" t="n">
         <v>33.3333333333333</v>
@@ -3555,13 +3555,13 @@
         <v>120</v>
       </c>
       <c r="G39" t="n">
-        <v>2191.97484199495</v>
+        <v>1877.49207451786</v>
       </c>
       <c r="H39" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I39" t="n">
-        <v>14047.48348</v>
+        <v>11754.93474</v>
       </c>
       <c r="J39" t="n">
         <v>33.3333333333333</v>
@@ -3640,13 +3640,13 @@
         <v>120</v>
       </c>
       <c r="G40" t="n">
-        <v>2191.97484199495</v>
+        <v>1877.49207451786</v>
       </c>
       <c r="H40" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I40" t="n">
-        <v>14047.48348</v>
+        <v>11754.93474</v>
       </c>
       <c r="J40" t="n">
         <v>33.3333333333333</v>
@@ -3725,13 +3725,13 @@
         <v>120</v>
       </c>
       <c r="G41" t="n">
-        <v>2191.97484199495</v>
+        <v>1877.49207451786</v>
       </c>
       <c r="H41" t="n">
-        <v>21660.5088145863</v>
+        <v>14871.4668970287</v>
       </c>
       <c r="I41" t="n">
-        <v>14047.48348</v>
+        <v>11754.93474</v>
       </c>
       <c r="J41" t="n">
         <v>33.3333333333333</v>
